--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2221827.34322768</v>
+        <v>2167202.515395367</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10893593.65179475</v>
+        <v>10834384.46297051</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5799378.772467732</v>
+        <v>5806720.087375078</v>
       </c>
     </row>
     <row r="11">
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>97.90435205358158</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>111.1538965185986</v>
+        <v>84.39771755507513</v>
       </c>
       <c r="I17" t="n">
-        <v>111.1538965185986</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>111.1538965185986</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="D18" t="n">
-        <v>92.57435729897963</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="F18" t="n">
-        <v>90.19850412772476</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="G18" t="n">
-        <v>82.47280889755152</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>28.99084912570058</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>55.40686842937455</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>54.96647476652281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>42.9866400266493</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>97.90435205358158</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>41.41107752842581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="W19" t="n">
-        <v>111.1538965185986</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.90435205358158</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>100.5174819003395</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>45.11061347096499</v>
       </c>
       <c r="H21" t="n">
-        <v>57.36473597083734</v>
+        <v>55.40686842937455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>40.53961608274423</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>91.56325438091005</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>90.55033975727213</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.33346744457248</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="S22" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>71.18401445576704</v>
       </c>
       <c r="V22" t="n">
-        <v>26.94465443399797</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,11 +2320,11 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -2332,61 +2332,61 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>81.24483218966495</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>133.6992167127163</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>238.3556256187198</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>52.53547740984448</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>68.24844760398587</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>108.8584694205066</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V24" t="n">
         <v>143.4039542980102</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>4.737086255147832</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>23.74231273724121</v>
       </c>
       <c r="U25" t="n">
         <v>196.9223965050758</v>
@@ -2538,7 +2538,7 @@
         <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>38.02800101713306</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>81.24483218966495</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>53.24253895701759</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>82.28653825242274</v>
@@ -2690,19 +2690,19 @@
         <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>136.5447492295597</v>
+        <v>120.597032158223</v>
       </c>
       <c r="V27" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="28">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>22.82990814467374</v>
+        <v>111.0454968448334</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>18.11368384099118</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
         <v>83.31186613690066</v>
@@ -2885,7 +2885,7 @@
         <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>22.83881138508139</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>82.28653825242274</v>
@@ -2930,16 +2930,16 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>38.27437600850301</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>162.2983503095045</v>
+        <v>65.85819820668969</v>
       </c>
       <c r="X30" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -2961,16 +2961,16 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>16.79768049263298</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>2.661421338114761</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>237.7828602874626</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.37534949722421</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>47.28723141199562</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>57.48724630275781</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>44.91137824074075</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>37.1856830105675</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>71.52533695119469</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>100.0068945421785</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
-        <v>3.151607555352583</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V33" t="n">
-        <v>132.6427529967821</v>
+        <v>94.46907887822374</v>
       </c>
       <c r="W33" t="n">
-        <v>151.5371490082765</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>105.6151510508343</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>105.5248616246612</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.27612849392604</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>45.26321387028811</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>127.7877552756384</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>83.4160913394322</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>186.3651641839479</v>
+        <v>117.3827353013616</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4268191994517</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>74.51743144841599</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>151.1878187551933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>227.5944243174918</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,19 +3347,19 @@
         <v>66.37534949722421</v>
       </c>
       <c r="C36" t="n">
-        <v>72.55066483567261</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>47.28723141199562</v>
       </c>
       <c r="E36" t="n">
-        <v>57.48724630275781</v>
+        <v>16.95236718108699</v>
       </c>
       <c r="F36" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>12.07761008385333</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T36" t="n">
         <v>100.0068945421785</v>
       </c>
       <c r="U36" t="n">
-        <v>2.126279670874786</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V36" t="n">
         <v>132.6427529967821</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>27.39306894334908</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V37" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>186.3651641839479</v>
       </c>
       <c r="X37" t="n">
-        <v>125.551821236394</v>
+        <v>93.88927103528687</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>142.886112462056</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3881600193582</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>157.4639399972442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>152.4475745044988</v>
+        <v>69.39927318138612</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.9012740829802</v>
+        <v>7.746995199749517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>105.1187218799658</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>79.85528845628879</v>
       </c>
       <c r="E39" t="n">
-        <v>92.01317088851377</v>
+        <v>90.05530334705098</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>71.71160759632346</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.52592458575596</v>
+        <v>32.56805704429317</v>
       </c>
       <c r="S39" t="n">
-        <v>106.0512615369506</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>134.5328191279344</v>
+        <v>132.5749515864716</v>
       </c>
       <c r="U39" t="n">
-        <v>160.3094725140876</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>167.1686775825381</v>
+        <v>165.2108100410753</v>
       </c>
       <c r="W39" t="n">
-        <v>68.1140443613351</v>
+        <v>184.1052060525697</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>138.0929186689544</v>
       </c>
     </row>
     <row r="40">
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>99.65704399027787</v>
       </c>
       <c r="D40" t="n">
-        <v>82.98356345132518</v>
+        <v>54.79069975342833</v>
       </c>
       <c r="E40" t="n">
-        <v>80.802053079682</v>
+        <v>78.84418553821921</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>77.83127091458128</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>100.4012022501088</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>94.63739539908961</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>111.6614818102823</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>219.2012636400895</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>114.3810335898605</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>127.887668088367</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
     </row>
     <row r="42">
@@ -3824,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>91.80385521229638</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>89.42800204104151</v>
+        <v>87.47013449957872</v>
       </c>
       <c r="G42" t="n">
-        <v>81.70230681086827</v>
+        <v>79.74443926940548</v>
       </c>
       <c r="H42" t="n">
-        <v>56.59423388415409</v>
+        <v>54.6363663426913</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.672871909005735</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>42.55875625883797</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>54.57342035962111</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.1907698295949</v>
+        <v>122.2329022881321</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>51.985501632611</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.13129253191534</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.85139703345313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="C44" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>111.7679037431025</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>114.3810335898605</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110.891973297525</v>
+        <v>108.9341057560622</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.489060292335504</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.79755495760992</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>97.92986671596826</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="X45" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.31587910314546</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>73.92893118821286</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>119.6943134833643</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="X46" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>444.6155860743943</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="C17" t="n">
-        <v>444.6155860743943</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="D17" t="n">
-        <v>444.6155860743943</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="E17" t="n">
-        <v>444.6155860743943</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="F17" t="n">
-        <v>345.7223011717866</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="G17" t="n">
-        <v>233.445638021687</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="H17" t="n">
-        <v>121.1689748715875</v>
+        <v>104.4528123944224</v>
       </c>
       <c r="I17" t="n">
-        <v>8.892311721487886</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="J17" t="n">
-        <v>8.892311721487886</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="K17" t="n">
-        <v>111.9073176324102</v>
+        <v>102.5267458945623</v>
       </c>
       <c r="L17" t="n">
-        <v>111.9073176324102</v>
+        <v>197.387940694204</v>
       </c>
       <c r="M17" t="n">
-        <v>221.9496751858228</v>
+        <v>292.2491354938457</v>
       </c>
       <c r="N17" t="n">
-        <v>244.9131732289307</v>
+        <v>292.2491354938457</v>
       </c>
       <c r="O17" t="n">
-        <v>354.9555307823433</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="P17" t="n">
-        <v>444.6155860743943</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="Q17" t="n">
-        <v>444.6155860743943</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="R17" t="n">
-        <v>444.6155860743943</v>
+        <v>286.4902934465254</v>
       </c>
       <c r="S17" t="n">
-        <v>444.6155860743943</v>
+        <v>286.4902934465254</v>
       </c>
       <c r="T17" t="n">
-        <v>444.6155860743943</v>
+        <v>286.4902934465254</v>
       </c>
       <c r="U17" t="n">
-        <v>444.6155860743943</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="V17" t="n">
-        <v>444.6155860743943</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="W17" t="n">
-        <v>444.6155860743943</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6155860743943</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="Y17" t="n">
-        <v>444.6155860743943</v>
+        <v>189.7030321470235</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>389.0938943910379</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="C18" t="n">
-        <v>276.8172312409383</v>
+        <v>230.5237596794803</v>
       </c>
       <c r="D18" t="n">
-        <v>183.3077794237872</v>
+        <v>230.5237596794803</v>
       </c>
       <c r="E18" t="n">
-        <v>183.3077794237872</v>
+        <v>133.7364983799785</v>
       </c>
       <c r="F18" t="n">
-        <v>92.19817929477225</v>
+        <v>36.94923708047669</v>
       </c>
       <c r="G18" t="n">
-        <v>8.892311721487886</v>
+        <v>36.94923708047669</v>
       </c>
       <c r="H18" t="n">
-        <v>8.892311721487886</v>
+        <v>36.94923708047669</v>
       </c>
       <c r="I18" t="n">
-        <v>8.892311721487886</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="J18" t="n">
-        <v>8.892311721487886</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="K18" t="n">
-        <v>118.9346692749005</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="L18" t="n">
-        <v>228.9770268283131</v>
+        <v>98.693970347102</v>
       </c>
       <c r="M18" t="n">
-        <v>339.0193843817257</v>
+        <v>193.5551651467437</v>
       </c>
       <c r="N18" t="n">
-        <v>339.0193843817257</v>
+        <v>288.4163599463855</v>
       </c>
       <c r="O18" t="n">
-        <v>444.6155860743943</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="P18" t="n">
-        <v>444.6155860743943</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="Q18" t="n">
-        <v>444.6155860743943</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="R18" t="n">
-        <v>444.6155860743943</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="S18" t="n">
-        <v>444.6155860743943</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="T18" t="n">
-        <v>444.6155860743943</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="U18" t="n">
-        <v>444.6155860743943</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="V18" t="n">
-        <v>444.6155860743943</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="W18" t="n">
-        <v>444.6155860743943</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="X18" t="n">
-        <v>444.6155860743943</v>
+        <v>327.3110209789822</v>
       </c>
       <c r="Y18" t="n">
-        <v>389.0938943910379</v>
+        <v>327.3110209789822</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>107.7855966240955</v>
+        <v>147.8736609061893</v>
       </c>
       <c r="C19" t="n">
-        <v>107.7855966240955</v>
+        <v>104.4528123944224</v>
       </c>
       <c r="D19" t="n">
-        <v>107.7855966240955</v>
+        <v>104.4528123944224</v>
       </c>
       <c r="E19" t="n">
-        <v>107.7855966240955</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="F19" t="n">
-        <v>107.7855966240955</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="G19" t="n">
-        <v>8.892311721487886</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="H19" t="n">
-        <v>8.892311721487886</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="I19" t="n">
-        <v>8.892311721487886</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="J19" t="n">
-        <v>8.892311721487886</v>
+        <v>7.665551094920544</v>
       </c>
       <c r="K19" t="n">
-        <v>41.16751599686643</v>
+        <v>29.92221025333242</v>
       </c>
       <c r="L19" t="n">
-        <v>122.8036421875819</v>
+        <v>101.5397913270813</v>
       </c>
       <c r="M19" t="n">
-        <v>216.3136815628067</v>
+        <v>185.0312855853394</v>
       </c>
       <c r="N19" t="n">
-        <v>314.3265334012455</v>
+        <v>273.0255923068116</v>
       </c>
       <c r="O19" t="n">
-        <v>392.9878112191472</v>
+        <v>341.6683250077467</v>
       </c>
       <c r="P19" t="n">
-        <v>444.6155860743943</v>
+        <v>383.2775547460272</v>
       </c>
       <c r="Q19" t="n">
-        <v>444.6155860743943</v>
+        <v>341.448183505193</v>
       </c>
       <c r="R19" t="n">
-        <v>444.6155860743943</v>
+        <v>341.448183505193</v>
       </c>
       <c r="S19" t="n">
-        <v>444.6155860743943</v>
+        <v>341.448183505193</v>
       </c>
       <c r="T19" t="n">
-        <v>332.3389229242947</v>
+        <v>341.448183505193</v>
       </c>
       <c r="U19" t="n">
-        <v>332.3389229242947</v>
+        <v>341.448183505193</v>
       </c>
       <c r="V19" t="n">
-        <v>332.3389229242947</v>
+        <v>244.6609222056912</v>
       </c>
       <c r="W19" t="n">
-        <v>220.0622597741951</v>
+        <v>147.8736609061893</v>
       </c>
       <c r="X19" t="n">
-        <v>220.0622597741951</v>
+        <v>147.8736609061893</v>
       </c>
       <c r="Y19" t="n">
-        <v>107.7855966240955</v>
+        <v>147.8736609061893</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.445638021687</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="C20" t="n">
-        <v>233.445638021687</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="D20" t="n">
-        <v>121.1689748715875</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="E20" t="n">
-        <v>121.1689748715875</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="F20" t="n">
-        <v>121.1689748715875</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="G20" t="n">
-        <v>121.1689748715875</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="H20" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="I20" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="J20" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="K20" t="n">
-        <v>111.9073176324102</v>
+        <v>112.1446591262121</v>
       </c>
       <c r="L20" t="n">
-        <v>221.9496751858228</v>
+        <v>225.1241176654221</v>
       </c>
       <c r="M20" t="n">
-        <v>331.9920327392354</v>
+        <v>338.1035762046322</v>
       </c>
       <c r="N20" t="n">
-        <v>442.034390292648</v>
+        <v>451.0830347438422</v>
       </c>
       <c r="O20" t="n">
-        <v>442.034390292648</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="P20" t="n">
-        <v>444.6155860743943</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="Q20" t="n">
-        <v>444.6155860743943</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="R20" t="n">
-        <v>444.6155860743943</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="S20" t="n">
-        <v>444.6155860743943</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="T20" t="n">
-        <v>444.6155860743943</v>
+        <v>341.2092615815343</v>
       </c>
       <c r="U20" t="n">
-        <v>444.6155860743943</v>
+        <v>341.2092615815343</v>
       </c>
       <c r="V20" t="n">
-        <v>444.6155860743943</v>
+        <v>225.9358623985835</v>
       </c>
       <c r="W20" t="n">
-        <v>444.6155860743943</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="X20" t="n">
-        <v>444.6155860743943</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.3389229242947</v>
+        <v>110.6624632156327</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>66.83648946980844</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="C21" t="n">
-        <v>66.83648946980844</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="D21" t="n">
-        <v>66.83648946980844</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="E21" t="n">
-        <v>66.83648946980844</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="F21" t="n">
-        <v>66.83648946980844</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="G21" t="n">
-        <v>66.83648946980844</v>
+        <v>65.09618698233471</v>
       </c>
       <c r="H21" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="I21" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="J21" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="K21" t="n">
-        <v>118.9346692749005</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="L21" t="n">
-        <v>224.5308709675691</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="M21" t="n">
-        <v>334.5732285209817</v>
+        <v>122.1091117544998</v>
       </c>
       <c r="N21" t="n">
-        <v>334.5732285209817</v>
+        <v>161.1291851727357</v>
       </c>
       <c r="O21" t="n">
-        <v>444.6155860743943</v>
+        <v>274.1086437119458</v>
       </c>
       <c r="P21" t="n">
-        <v>444.6155860743943</v>
+        <v>387.0881022511558</v>
       </c>
       <c r="Q21" t="n">
-        <v>444.6155860743943</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="R21" t="n">
-        <v>444.6155860743943</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="S21" t="n">
-        <v>332.3389229242947</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="T21" t="n">
-        <v>220.0622597741951</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="U21" t="n">
-        <v>220.0622597741951</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="V21" t="n">
-        <v>179.113152619908</v>
+        <v>341.2092615815343</v>
       </c>
       <c r="W21" t="n">
-        <v>179.113152619908</v>
+        <v>225.9358623985835</v>
       </c>
       <c r="X21" t="n">
-        <v>179.113152619908</v>
+        <v>110.6624632156327</v>
       </c>
       <c r="Y21" t="n">
-        <v>179.113152619908</v>
+        <v>110.6624632156327</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>192.8454371135911</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="C22" t="n">
-        <v>192.8454371135911</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="D22" t="n">
-        <v>192.8454371135911</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="E22" t="n">
-        <v>100.3573013752981</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="F22" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="G22" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="H22" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="I22" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="J22" t="n">
-        <v>8.892311721487886</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="K22" t="n">
-        <v>41.1675159968664</v>
+        <v>43.34314635671632</v>
       </c>
       <c r="L22" t="n">
-        <v>122.8036421875819</v>
+        <v>126.9175614134801</v>
       </c>
       <c r="M22" t="n">
-        <v>216.3136815628066</v>
+        <v>222.3658896547529</v>
       </c>
       <c r="N22" t="n">
-        <v>314.3265334012454</v>
+        <v>322.3170303592399</v>
       </c>
       <c r="O22" t="n">
-        <v>392.9878112191472</v>
+        <v>402.9165970431899</v>
       </c>
       <c r="P22" t="n">
-        <v>444.6155860743943</v>
+        <v>456.4826607644851</v>
       </c>
       <c r="Q22" t="n">
-        <v>444.6155860743943</v>
+        <v>426.8528956689573</v>
       </c>
       <c r="R22" t="n">
-        <v>444.6155860743943</v>
+        <v>311.5794964860065</v>
       </c>
       <c r="S22" t="n">
-        <v>332.3389229242947</v>
+        <v>196.3060973030557</v>
       </c>
       <c r="T22" t="n">
-        <v>332.3389229242947</v>
+        <v>81.03269812010491</v>
       </c>
       <c r="U22" t="n">
-        <v>332.3389229242947</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="V22" t="n">
-        <v>305.1221002636907</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="W22" t="n">
-        <v>305.1221002636907</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="X22" t="n">
-        <v>192.8454371135911</v>
+        <v>9.129653215289702</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.8454371135911</v>
+        <v>9.129653215289702</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>588.2441834586805</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>344.7954068145804</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>344.7954068145804</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>344.7954068145804</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>344.7954068145804</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>101.3466301704804</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>101.3466301704804</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>829.0074416594076</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>829.0074416594076</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>588.2441834586805</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>588.2441834586805</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>588.2441834586805</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>588.2441834586805</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>248.3510845635961</v>
+        <v>172.3723691111082</v>
       </c>
       <c r="C24" t="n">
-        <v>195.2849457657734</v>
+        <v>88.21896897282471</v>
       </c>
       <c r="D24" t="n">
-        <v>136.6501652473657</v>
+        <v>88.21896897282471</v>
       </c>
       <c r="E24" t="n">
-        <v>67.7123393847537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>67.7123393847537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>870.0695397998778</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>870.0695397998778</v>
+        <v>854.0991055909326</v>
       </c>
       <c r="U24" t="n">
-        <v>870.0695397998778</v>
+        <v>716.1751164701652</v>
       </c>
       <c r="V24" t="n">
-        <v>725.2170607109786</v>
+        <v>571.3226373812661</v>
       </c>
       <c r="W24" t="n">
-        <v>561.2793331256204</v>
+        <v>407.3849097959079</v>
       </c>
       <c r="X24" t="n">
-        <v>443.7274620629311</v>
+        <v>289.8330387332186</v>
       </c>
       <c r="Y24" t="n">
-        <v>326.2667924408207</v>
+        <v>172.3723691111082</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.8325810258762</v>
+        <v>76.89460754976233</v>
       </c>
       <c r="C25" t="n">
-        <v>324.8325810258762</v>
+        <v>76.89460754976233</v>
       </c>
       <c r="D25" t="n">
-        <v>320.0476454146158</v>
+        <v>76.89460754976233</v>
       </c>
       <c r="E25" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>386.5035150298927</v>
+        <v>85.73701272548962</v>
       </c>
       <c r="L25" t="n">
-        <v>502.3203065605066</v>
+        <v>201.5538042561035</v>
       </c>
       <c r="M25" t="n">
-        <v>630.0110112756297</v>
+        <v>329.2445089712266</v>
       </c>
       <c r="N25" t="n">
-        <v>762.204528453967</v>
+        <v>461.4380261495638</v>
       </c>
       <c r="O25" t="n">
-        <v>875.0464716117672</v>
+        <v>574.279969307364</v>
       </c>
       <c r="P25" t="n">
-        <v>960.8549118069127</v>
+        <v>660.0884095025095</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S25" t="n">
-        <v>828.0773926969421</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T25" t="n">
-        <v>688.1289517102083</v>
+        <v>639.3085191282116</v>
       </c>
       <c r="U25" t="n">
-        <v>489.2174400889196</v>
+        <v>440.3970075069229</v>
       </c>
       <c r="V25" t="n">
-        <v>324.8325810258762</v>
+        <v>276.0121484438795</v>
       </c>
       <c r="W25" t="n">
-        <v>324.8325810258762</v>
+        <v>76.89460754976233</v>
       </c>
       <c r="X25" t="n">
-        <v>324.8325810258762</v>
+        <v>76.89460754976233</v>
       </c>
       <c r="Y25" t="n">
-        <v>324.8325810258762</v>
+        <v>76.89460754976233</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.1420419938411</v>
+        <v>344.7954068145804</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>344.7954068145804</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>344.7954068145804</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>344.7954068145804</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>344.7954068145804</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>101.3466301704804</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>101.3466301704804</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>843.2254012330299</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>708.1756873818013</v>
+        <v>829.0074416594076</v>
       </c>
       <c r="U26" t="n">
-        <v>544.5908186379412</v>
+        <v>829.0074416594076</v>
       </c>
       <c r="V26" t="n">
-        <v>544.5908186379412</v>
+        <v>588.2441834586805</v>
       </c>
       <c r="W26" t="n">
-        <v>544.5908186379412</v>
+        <v>344.7954068145804</v>
       </c>
       <c r="X26" t="n">
-        <v>301.1420419938411</v>
+        <v>344.7954068145804</v>
       </c>
       <c r="Y26" t="n">
-        <v>301.1420419938411</v>
+        <v>344.7954068145804</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>279.938527151907</v>
+        <v>103.4345432484962</v>
       </c>
       <c r="C27" t="n">
-        <v>226.1581847710812</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>167.5234042526734</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>98.58557839006141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>870.0695397998778</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="T27" t="n">
-        <v>758.1825743014874</v>
+        <v>769.0524746057582</v>
       </c>
       <c r="U27" t="n">
-        <v>620.25858518072</v>
+        <v>647.2372906075532</v>
       </c>
       <c r="V27" t="n">
-        <v>475.4061060918208</v>
+        <v>502.384811518654</v>
       </c>
       <c r="W27" t="n">
-        <v>475.4061060918208</v>
+        <v>338.4470839332959</v>
       </c>
       <c r="X27" t="n">
-        <v>357.8542350291315</v>
+        <v>220.8952128706066</v>
       </c>
       <c r="Y27" t="n">
-        <v>357.8542350291315</v>
+        <v>103.4345432484962</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.3904245070682</v>
+        <v>193.3019361743214</v>
       </c>
       <c r="C28" t="n">
-        <v>165.3904245070682</v>
+        <v>193.3019361743214</v>
       </c>
       <c r="D28" t="n">
-        <v>165.3904245070682</v>
+        <v>133.4849259048292</v>
       </c>
       <c r="E28" t="n">
-        <v>165.3904245070682</v>
+        <v>75.87146146527957</v>
       </c>
       <c r="F28" t="n">
-        <v>165.3904245070682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>86.00219571207455</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>86.00219571207455</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6414,22 +6414,22 @@
         <v>527.3108903925389</v>
       </c>
       <c r="T28" t="n">
-        <v>387.3624494058051</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="U28" t="n">
-        <v>188.4509377845164</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="V28" t="n">
-        <v>188.4509377845164</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="W28" t="n">
-        <v>188.4509377845164</v>
+        <v>527.3108903925389</v>
       </c>
       <c r="X28" t="n">
-        <v>165.3904245070682</v>
+        <v>415.1437218624042</v>
       </c>
       <c r="Y28" t="n">
-        <v>165.3904245070682</v>
+        <v>284.6507718617175</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>281.0265700987483</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>767.9241233869484</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>767.9241233869484</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>767.9241233869484</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>767.9241233869484</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>524.4753467428484</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>524.4753467428484</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>300.1080006654979</v>
+        <v>251.6768043909569</v>
       </c>
       <c r="C30" t="n">
-        <v>215.9546005272144</v>
+        <v>167.5234042526734</v>
       </c>
       <c r="D30" t="n">
-        <v>215.9546005272144</v>
+        <v>167.5234042526734</v>
       </c>
       <c r="E30" t="n">
-        <v>147.0167746646024</v>
+        <v>98.58557839006141</v>
       </c>
       <c r="F30" t="n">
-        <v>90.78184583433085</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="G30" t="n">
         <v>42.35064955978989</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>870.0695397998778</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="T30" t="n">
-        <v>758.1825743014874</v>
+        <v>769.0524746057582</v>
       </c>
       <c r="U30" t="n">
-        <v>620.25858518072</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="V30" t="n">
-        <v>581.5975993135453</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="W30" t="n">
-        <v>417.6598717281872</v>
+        <v>564.6050529529811</v>
       </c>
       <c r="X30" t="n">
-        <v>300.1080006654979</v>
+        <v>447.0531818902918</v>
       </c>
       <c r="Y30" t="n">
-        <v>300.1080006654979</v>
+        <v>329.5925122681814</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>299.7882532490726</v>
+        <v>195.9902405562555</v>
       </c>
       <c r="C31" t="n">
-        <v>299.7882532490726</v>
+        <v>195.9902405562555</v>
       </c>
       <c r="D31" t="n">
-        <v>239.9712429795804</v>
+        <v>136.1732302867633</v>
       </c>
       <c r="E31" t="n">
-        <v>182.3577785400308</v>
+        <v>78.55976584721367</v>
       </c>
       <c r="F31" t="n">
-        <v>182.3577785400308</v>
+        <v>21.96944749214683</v>
       </c>
       <c r="G31" t="n">
-        <v>102.9695497450372</v>
+        <v>21.96944749214683</v>
       </c>
       <c r="H31" t="n">
-        <v>86.00219571207455</v>
+        <v>21.96944749214683</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6657,16 +6657,16 @@
         <v>663.2906532062331</v>
       </c>
       <c r="V31" t="n">
-        <v>498.9057941431897</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="W31" t="n">
-        <v>299.7882532490726</v>
+        <v>464.1731123121159</v>
       </c>
       <c r="X31" t="n">
-        <v>299.7882532490726</v>
+        <v>326.4831905569421</v>
       </c>
       <c r="Y31" t="n">
-        <v>299.7882532490726</v>
+        <v>195.9902405562555</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>259.4658504712861</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>259.4658504712861</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6736,16 +6736,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>746.3634037594862</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>746.3634037594862</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>502.9146271153862</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>502.9146271153862</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>220.2398795242683</v>
+        <v>220.3257424864427</v>
       </c>
       <c r="C33" t="n">
-        <v>220.2398795242683</v>
+        <v>159.2418487977363</v>
       </c>
       <c r="D33" t="n">
-        <v>172.4749993101313</v>
+        <v>123.6765747289057</v>
       </c>
       <c r="E33" t="n">
-        <v>114.4070737517901</v>
+        <v>77.80825531587089</v>
       </c>
       <c r="F33" t="n">
-        <v>69.04204522578932</v>
+        <v>44.64283293517654</v>
       </c>
       <c r="G33" t="n">
-        <v>31.48074925551912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6785,7 +6785,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
         <v>234.810827406191</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>891.8093404084193</v>
+        <v>904.0089465537258</v>
       </c>
       <c r="T33" t="n">
-        <v>790.7922752142996</v>
+        <v>815.1914875049125</v>
       </c>
       <c r="U33" t="n">
-        <v>787.608833239196</v>
+        <v>700.3370048337223</v>
       </c>
       <c r="V33" t="n">
-        <v>653.6262544545676</v>
+        <v>604.9136928355165</v>
       </c>
       <c r="W33" t="n">
-        <v>500.5584271734803</v>
+        <v>464.0454716997355</v>
       </c>
       <c r="X33" t="n">
-        <v>393.8764564150617</v>
+        <v>369.5631070866233</v>
       </c>
       <c r="Y33" t="n">
-        <v>287.2856870972221</v>
+        <v>275.17194391409</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>223.3885366299903</v>
+        <v>142.9129603411611</v>
       </c>
       <c r="C34" t="n">
-        <v>223.3885366299903</v>
+        <v>87.34591300567484</v>
       </c>
       <c r="D34" t="n">
-        <v>174.4414266647689</v>
+        <v>87.34591300567484</v>
       </c>
       <c r="E34" t="n">
-        <v>127.6978625294901</v>
+        <v>52.8019550157024</v>
       </c>
       <c r="F34" t="n">
-        <v>81.97744447869398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>81.97744447869398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6858,52 +6858,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>26.01181060582338</v>
+        <v>37.96864458883817</v>
       </c>
       <c r="K34" t="n">
-        <v>103.1212695093161</v>
+        <v>127.0349374753456</v>
       </c>
       <c r="L34" t="n">
-        <v>229.5916503281457</v>
+        <v>265.4621522771901</v>
       </c>
       <c r="M34" t="n">
-        <v>367.9359443314846</v>
+        <v>415.7632802635438</v>
       </c>
       <c r="N34" t="n">
-        <v>510.7830507980376</v>
+        <v>570.5672207131116</v>
       </c>
       <c r="O34" t="n">
-        <v>634.2785832440536</v>
+        <v>706.0195871421424</v>
       </c>
       <c r="P34" t="n">
-        <v>730.7406127274148</v>
+        <v>814.4384506085185</v>
       </c>
       <c r="Q34" t="n">
-        <v>744.5964457193541</v>
+        <v>840.2511175834725</v>
       </c>
       <c r="R34" t="n">
-        <v>744.5964457193541</v>
+        <v>774.5360194615805</v>
       </c>
       <c r="S34" t="n">
-        <v>744.5964457193541</v>
+        <v>661.6257630974635</v>
       </c>
       <c r="T34" t="n">
-        <v>615.5179050368911</v>
+        <v>544.7468285603069</v>
       </c>
       <c r="U34" t="n">
-        <v>615.5179050368911</v>
+        <v>368.9048233885953</v>
       </c>
       <c r="V34" t="n">
-        <v>531.2592269162525</v>
+        <v>368.9048233885953</v>
       </c>
       <c r="W34" t="n">
-        <v>343.0115863264061</v>
+        <v>250.3364038922705</v>
       </c>
       <c r="X34" t="n">
-        <v>343.0115863264061</v>
+        <v>250.3364038922705</v>
       </c>
       <c r="Y34" t="n">
-        <v>223.3885366299903</v>
+        <v>142.9129603411611</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>338.0000525304906</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>338.0000525304906</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>94.5512758863905</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>94.5512758863905</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6970,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>811.342187071047</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>581.4488291745906</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>581.4488291745906</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>338.0000525304906</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>338.0000525304906</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>293.523379358281</v>
+        <v>96.36923268287529</v>
       </c>
       <c r="C36" t="n">
-        <v>220.2398795242683</v>
+        <v>96.36923268287529</v>
       </c>
       <c r="D36" t="n">
-        <v>172.4749993101313</v>
+        <v>48.6043524687383</v>
       </c>
       <c r="E36" t="n">
-        <v>114.4070737517901</v>
+        <v>31.48074925551912</v>
       </c>
       <c r="F36" t="n">
-        <v>69.04204522578932</v>
+        <v>31.48074925551912</v>
       </c>
       <c r="G36" t="n">
         <v>31.48074925551912</v>
@@ -7022,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>891.8093404084193</v>
       </c>
       <c r="T36" t="n">
-        <v>863.0400903165165</v>
+        <v>790.7922752142996</v>
       </c>
       <c r="U36" t="n">
-        <v>860.8923330732086</v>
+        <v>663.7381863978029</v>
       </c>
       <c r="V36" t="n">
-        <v>726.9097542885803</v>
+        <v>529.7556076131746</v>
       </c>
       <c r="W36" t="n">
-        <v>573.8419270074929</v>
+        <v>376.6877803320872</v>
       </c>
       <c r="X36" t="n">
-        <v>467.1599562490744</v>
+        <v>270.0058095736687</v>
       </c>
       <c r="Y36" t="n">
-        <v>360.5691869312348</v>
+        <v>163.415040255829</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.3907752234163</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>128.7210086139728</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>128.7210086139728</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>81.97744447869398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>81.97744447869398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>81.97744447869398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7122,25 +7122,25 @@
         <v>744.5964457193541</v>
       </c>
       <c r="S37" t="n">
-        <v>744.5964457193541</v>
+        <v>619.4865832099307</v>
       </c>
       <c r="T37" t="n">
-        <v>744.5964457193541</v>
+        <v>490.4080425274677</v>
       </c>
       <c r="U37" t="n">
-        <v>744.5964457193541</v>
+        <v>302.3664312104498</v>
       </c>
       <c r="V37" t="n">
-        <v>591.0814869605815</v>
+        <v>302.3664312104498</v>
       </c>
       <c r="W37" t="n">
-        <v>402.8338463707352</v>
+        <v>114.1187906206035</v>
       </c>
       <c r="X37" t="n">
-        <v>276.0138249198321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>156.3907752234163</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>893.9568795698422</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>893.9568795698422</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>893.9568795698422</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>893.9568795698422</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>650.5081029257422</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>407.059326281642</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>163.610549637542</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>819.2206302385573</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>660.1661453928562</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>893.9568795698422</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>893.9568795698422</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>893.9568795698422</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>893.9568795698422</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>893.9568795698422</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>184.659707236311</v>
+        <v>297.0885306691072</v>
       </c>
       <c r="C39" t="n">
-        <v>184.659707236311</v>
+        <v>190.9080035176266</v>
       </c>
       <c r="D39" t="n">
-        <v>184.659707236311</v>
+        <v>110.2460959860218</v>
       </c>
       <c r="E39" t="n">
-        <v>91.71711037922633</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>91.71711037922633</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>929.1824842118929</v>
+        <v>931.1601281931684</v>
       </c>
       <c r="S39" t="n">
-        <v>822.0599978109326</v>
+        <v>931.1601281931684</v>
       </c>
       <c r="T39" t="n">
-        <v>686.1682613180695</v>
+        <v>797.2460356815809</v>
       </c>
       <c r="U39" t="n">
-        <v>524.2395012028295</v>
+        <v>797.2460356815809</v>
       </c>
       <c r="V39" t="n">
-        <v>355.3822511194577</v>
+        <v>630.3664295794846</v>
       </c>
       <c r="W39" t="n">
-        <v>286.5801861080081</v>
+        <v>444.4015749809294</v>
       </c>
       <c r="X39" t="n">
-        <v>286.5801861080081</v>
+        <v>444.4015749809294</v>
       </c>
       <c r="Y39" t="n">
-        <v>286.5801861080081</v>
+        <v>304.9137783456219</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.7211598081998</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="C40" t="n">
-        <v>184.7211598081998</v>
+        <v>429.8920055904422</v>
       </c>
       <c r="D40" t="n">
-        <v>100.8993785442349</v>
+        <v>374.5478644253631</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>294.9072729726165</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>216.2898276043525</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>114.8744717961618</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7335,49 +7335,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>62.209936673807</v>
+        <v>64.14822553985516</v>
       </c>
       <c r="L40" t="n">
-        <v>154.4996521527383</v>
+        <v>158.3762298848346</v>
       </c>
       <c r="M40" t="n">
-        <v>258.6632808161788</v>
+        <v>264.4781474143232</v>
       </c>
       <c r="N40" t="n">
-        <v>367.3297219428334</v>
+        <v>375.082877407026</v>
       </c>
       <c r="O40" t="n">
-        <v>456.6445890489509</v>
+        <v>466.3360333791917</v>
       </c>
       <c r="P40" t="n">
-        <v>518.9259531924138</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="Q40" t="n">
-        <v>518.9259531924138</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="R40" t="n">
-        <v>406.136577626472</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="S40" t="n">
-        <v>406.136577626472</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="T40" t="n">
-        <v>406.136577626472</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="U40" t="n">
-        <v>406.136577626472</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="V40" t="n">
-        <v>406.136577626472</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="W40" t="n">
-        <v>184.7211598081998</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="X40" t="n">
-        <v>184.7211598081998</v>
+        <v>530.5556863887027</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.7211598081998</v>
+        <v>530.5556863887027</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>519.4415694362419</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="C41" t="n">
-        <v>403.9051718707263</v>
+        <v>287.4565700754126</v>
       </c>
       <c r="D41" t="n">
-        <v>403.9051718707263</v>
+        <v>140.7950547308144</v>
       </c>
       <c r="E41" t="n">
-        <v>403.9051718707263</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="F41" t="n">
-        <v>403.9051718707263</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="G41" t="n">
-        <v>272.7330583767258</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5609448827253</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="I41" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J41" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K41" t="n">
-        <v>113.4038372996472</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="L41" t="n">
-        <v>172.6579372732512</v>
+        <v>149.5507471968868</v>
       </c>
       <c r="M41" t="n">
-        <v>172.6579372732512</v>
+        <v>293.2936983861275</v>
       </c>
       <c r="N41" t="n">
-        <v>301.2197257087211</v>
+        <v>437.0366495753683</v>
       </c>
       <c r="O41" t="n">
-        <v>429.781514144191</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="P41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="Q41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="R41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="S41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="T41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="U41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="V41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="W41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="X41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="Y41" t="n">
-        <v>519.4415694362419</v>
+        <v>434.1180854200109</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>333.1447889123211</v>
+        <v>244.4679273897177</v>
       </c>
       <c r="C42" t="n">
-        <v>333.1447889123211</v>
+        <v>244.4679273897177</v>
       </c>
       <c r="D42" t="n">
-        <v>240.4136220312136</v>
+        <v>244.4679273897177</v>
       </c>
       <c r="E42" t="n">
-        <v>240.4136220312136</v>
+        <v>244.4679273897177</v>
       </c>
       <c r="F42" t="n">
-        <v>150.0823068382424</v>
+        <v>156.114256178022</v>
       </c>
       <c r="G42" t="n">
-        <v>67.5547242010017</v>
+        <v>75.56431752205687</v>
       </c>
       <c r="H42" t="n">
-        <v>10.38883138872484</v>
+        <v>20.37606869105555</v>
       </c>
       <c r="I42" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J42" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K42" t="n">
-        <v>135.7463914465623</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="L42" t="n">
-        <v>264.3081798820322</v>
+        <v>155.3585432045329</v>
       </c>
       <c r="M42" t="n">
-        <v>321.4852224874428</v>
+        <v>299.1014943937737</v>
       </c>
       <c r="N42" t="n">
-        <v>321.4852224874428</v>
+        <v>442.8444455830145</v>
       </c>
       <c r="O42" t="n">
-        <v>321.4852224874428</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="P42" t="n">
-        <v>450.0470109229126</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646091</v>
       </c>
       <c r="R42" t="n">
-        <v>519.4415694362419</v>
+        <v>537.7909580789142</v>
       </c>
       <c r="S42" t="n">
-        <v>519.4415694362419</v>
+        <v>537.7909580789142</v>
       </c>
       <c r="T42" t="n">
-        <v>519.4415694362419</v>
+        <v>537.7909580789142</v>
       </c>
       <c r="U42" t="n">
-        <v>464.3169024063216</v>
+        <v>391.1294427343159</v>
       </c>
       <c r="V42" t="n">
-        <v>464.3169024063216</v>
+        <v>244.4679273897177</v>
       </c>
       <c r="W42" t="n">
-        <v>464.3169024063216</v>
+        <v>244.4679273897177</v>
       </c>
       <c r="X42" t="n">
-        <v>333.1447889123211</v>
+        <v>244.4679273897177</v>
       </c>
       <c r="Y42" t="n">
-        <v>333.1447889123211</v>
+        <v>244.4679273897177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.89943909843292</v>
+        <v>193.4162885459674</v>
       </c>
       <c r="C43" t="n">
-        <v>62.89943909843292</v>
+        <v>193.4162885459674</v>
       </c>
       <c r="D43" t="n">
-        <v>62.89943909843292</v>
+        <v>193.4162885459674</v>
       </c>
       <c r="E43" t="n">
-        <v>62.89943909843292</v>
+        <v>193.4162885459674</v>
       </c>
       <c r="F43" t="n">
-        <v>10.38883138872484</v>
+        <v>193.4162885459674</v>
       </c>
       <c r="G43" t="n">
-        <v>10.38883138872484</v>
+        <v>110.4553869985782</v>
       </c>
       <c r="H43" t="n">
-        <v>10.38883138872484</v>
+        <v>110.4553869985782</v>
       </c>
       <c r="I43" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J43" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K43" t="n">
-        <v>43.42683272991976</v>
+        <v>46.59188222253526</v>
       </c>
       <c r="L43" t="n">
-        <v>125.8257559864517</v>
+        <v>130.9290943451153</v>
       </c>
       <c r="M43" t="n">
-        <v>220.0985924274928</v>
+        <v>227.1402196522046</v>
       </c>
       <c r="N43" t="n">
-        <v>318.8742413317481</v>
+        <v>327.854157422508</v>
       </c>
       <c r="O43" t="n">
-        <v>398.2983162154663</v>
+        <v>409.2165211722744</v>
       </c>
       <c r="P43" t="n">
-        <v>450.6888881365298</v>
+        <v>463.545381959386</v>
       </c>
       <c r="Q43" t="n">
-        <v>450.6888881365298</v>
+        <v>463.545381959386</v>
       </c>
       <c r="R43" t="n">
-        <v>450.6888881365298</v>
+        <v>463.545381959386</v>
       </c>
       <c r="S43" t="n">
-        <v>450.6888881365298</v>
+        <v>463.545381959386</v>
       </c>
       <c r="T43" t="n">
-        <v>450.6888881365298</v>
+        <v>463.545381959386</v>
       </c>
       <c r="U43" t="n">
-        <v>450.6888881365298</v>
+        <v>463.545381959386</v>
       </c>
       <c r="V43" t="n">
-        <v>450.6888881365298</v>
+        <v>463.545381959386</v>
       </c>
       <c r="W43" t="n">
-        <v>319.5167746425293</v>
+        <v>463.545381959386</v>
       </c>
       <c r="X43" t="n">
-        <v>319.5167746425293</v>
+        <v>463.545381959386</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.3446611485288</v>
+        <v>316.8838666147877</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.5609448827253</v>
+        <v>251.2237398238527</v>
       </c>
       <c r="C44" t="n">
-        <v>10.38883138872484</v>
+        <v>251.2237398238527</v>
       </c>
       <c r="D44" t="n">
-        <v>10.38883138872484</v>
+        <v>251.2237398238527</v>
       </c>
       <c r="E44" t="n">
-        <v>10.38883138872484</v>
+        <v>251.2237398238527</v>
       </c>
       <c r="F44" t="n">
-        <v>10.38883138872484</v>
+        <v>251.2237398238527</v>
       </c>
       <c r="G44" t="n">
-        <v>10.38883138872484</v>
+        <v>251.2237398238527</v>
       </c>
       <c r="H44" t="n">
-        <v>10.38883138872484</v>
+        <v>138.3268673560724</v>
       </c>
       <c r="I44" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="J44" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="K44" t="n">
-        <v>113.4038372996472</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="L44" t="n">
-        <v>113.4038372996472</v>
+        <v>41.040377105083</v>
       </c>
       <c r="M44" t="n">
-        <v>241.9656257351171</v>
+        <v>166.6650645547554</v>
       </c>
       <c r="N44" t="n">
-        <v>370.527414170587</v>
+        <v>292.2897520044279</v>
       </c>
       <c r="O44" t="n">
-        <v>499.0892026060568</v>
+        <v>417.9144394541004</v>
       </c>
       <c r="P44" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="Q44" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="R44" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="S44" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="T44" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="U44" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="V44" t="n">
-        <v>403.9051718707263</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="W44" t="n">
-        <v>272.7330583767258</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="X44" t="n">
-        <v>141.5609448827253</v>
+        <v>379.399117285002</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.5609448827253</v>
+        <v>379.399117285002</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13.91313471431626</v>
+        <v>42.27023227634719</v>
       </c>
       <c r="C45" t="n">
-        <v>13.91313471431626</v>
+        <v>42.27023227634719</v>
       </c>
       <c r="D45" t="n">
-        <v>13.91313471431626</v>
+        <v>42.27023227634719</v>
       </c>
       <c r="E45" t="n">
-        <v>13.91313471431626</v>
+        <v>42.27023227634719</v>
       </c>
       <c r="F45" t="n">
-        <v>13.91313471431626</v>
+        <v>42.27023227634719</v>
       </c>
       <c r="G45" t="n">
-        <v>13.91313471431626</v>
+        <v>42.27023227634719</v>
       </c>
       <c r="H45" t="n">
-        <v>10.38883138872484</v>
+        <v>42.27023227634719</v>
       </c>
       <c r="I45" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="J45" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="K45" t="n">
-        <v>135.7463914465623</v>
+        <v>135.5090499527604</v>
       </c>
       <c r="L45" t="n">
-        <v>264.3081798820322</v>
+        <v>135.5090499527604</v>
       </c>
       <c r="M45" t="n">
-        <v>264.3081798820322</v>
+        <v>186.9305613334772</v>
       </c>
       <c r="N45" t="n">
-        <v>392.8699683175021</v>
+        <v>186.9305613334772</v>
       </c>
       <c r="O45" t="n">
-        <v>519.4415694362419</v>
+        <v>312.5552487831496</v>
       </c>
       <c r="P45" t="n">
-        <v>519.4415694362419</v>
+        <v>438.1799362328221</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="R45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="S45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="T45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461513</v>
       </c>
       <c r="U45" t="n">
-        <v>519.4415694362419</v>
+        <v>408.6554374572945</v>
       </c>
       <c r="V45" t="n">
-        <v>519.4415694362419</v>
+        <v>408.6554374572945</v>
       </c>
       <c r="W45" t="n">
-        <v>388.2694559422414</v>
+        <v>280.4800599961452</v>
       </c>
       <c r="X45" t="n">
-        <v>257.097342448241</v>
+        <v>280.4800599961452</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.9252289542405</v>
+        <v>152.3046825349959</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.38883138872484</v>
+        <v>84.82717796382491</v>
       </c>
       <c r="C46" t="n">
-        <v>10.38883138872484</v>
+        <v>84.82717796382491</v>
       </c>
       <c r="D46" t="n">
-        <v>10.38883138872484</v>
+        <v>84.82717796382491</v>
       </c>
       <c r="E46" t="n">
-        <v>10.38883138872484</v>
+        <v>84.82717796382491</v>
       </c>
       <c r="F46" t="n">
-        <v>10.38883138872484</v>
+        <v>84.82717796382491</v>
       </c>
       <c r="G46" t="n">
-        <v>10.38883138872484</v>
+        <v>84.82717796382491</v>
       </c>
       <c r="H46" t="n">
-        <v>10.38883138872484</v>
+        <v>84.82717796382491</v>
       </c>
       <c r="I46" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="J46" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="K46" t="n">
-        <v>43.42683272991976</v>
+        <v>45.12778010216611</v>
       </c>
       <c r="L46" t="n">
-        <v>125.8257559864517</v>
+        <v>129.4649922247462</v>
       </c>
       <c r="M46" t="n">
-        <v>220.0985924274928</v>
+        <v>225.6761175318355</v>
       </c>
       <c r="N46" t="n">
-        <v>318.8742413317481</v>
+        <v>326.3900553021389</v>
       </c>
       <c r="O46" t="n">
-        <v>398.2983162154663</v>
+        <v>407.7524190519052</v>
       </c>
       <c r="P46" t="n">
-        <v>450.6888881365298</v>
+        <v>462.0812798390169</v>
       </c>
       <c r="Q46" t="n">
-        <v>450.6888881365298</v>
+        <v>462.0812798390169</v>
       </c>
       <c r="R46" t="n">
-        <v>450.6888881365298</v>
+        <v>341.1779328861236</v>
       </c>
       <c r="S46" t="n">
-        <v>450.6888881365298</v>
+        <v>341.1779328861236</v>
       </c>
       <c r="T46" t="n">
-        <v>450.6888881365298</v>
+        <v>341.1779328861236</v>
       </c>
       <c r="U46" t="n">
-        <v>319.5167746425293</v>
+        <v>341.1779328861236</v>
       </c>
       <c r="V46" t="n">
-        <v>319.5167746425293</v>
+        <v>341.1779328861236</v>
       </c>
       <c r="W46" t="n">
-        <v>319.5167746425293</v>
+        <v>213.0025554249742</v>
       </c>
       <c r="X46" t="n">
-        <v>188.3446611485288</v>
+        <v>84.82717796382491</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.17254765452833</v>
+        <v>84.82717796382491</v>
       </c>
     </row>
   </sheetData>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>315.9092397314873</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>331.585803656494</v>
       </c>
       <c r="M17" t="n">
-        <v>341.5001297458713</v>
+        <v>326.1656219137795</v>
       </c>
       <c r="N17" t="n">
-        <v>252.6085161653868</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>341.2521079402853</v>
+        <v>322.0461096562135</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>248.9953354929576</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>249.7082762984728</v>
+        <v>230.5022780144009</v>
       </c>
       <c r="M18" t="n">
-        <v>253.2879304406169</v>
+        <v>237.9534226085251</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>227.1611007698401</v>
       </c>
       <c r="O18" t="n">
-        <v>249.259074437039</v>
+        <v>238.4156331309512</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9406,19 +9406,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>346.9203114885858</v>
+        <v>349.8870801611085</v>
       </c>
       <c r="M20" t="n">
-        <v>341.5001297458713</v>
+        <v>344.466898418394</v>
       </c>
       <c r="N20" t="n">
-        <v>340.5669601151895</v>
+        <v>343.5337287877122</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>235.5523791193058</v>
       </c>
       <c r="P20" t="n">
-        <v>233.8402642216799</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>248.9953354929576</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2172097724688</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>253.2879304406169</v>
+        <v>256.2546991131396</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>170.755927657309</v>
       </c>
       <c r="O21" t="n">
-        <v>253.750140963043</v>
+        <v>256.7169096355657</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>248.0950726054515</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10670,7 +10670,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,7 +10679,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>295.6190412059509</v>
+        <v>375.0948545473555</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>375.541133418425</v>
       </c>
       <c r="N41" t="n">
-        <v>359.2734559556514</v>
+        <v>374.6079637877432</v>
       </c>
       <c r="O41" t="n">
-        <v>359.9586037807472</v>
+        <v>375.293111612839</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>268.4147721389347</v>
+        <v>283.7492799710265</v>
       </c>
       <c r="M42" t="n">
-        <v>199.8886224123321</v>
+        <v>287.3289341131706</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>276.5366122744856</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>281.9246840218127</v>
       </c>
       <c r="P42" t="n">
-        <v>263.8347997733907</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>266.967311141866</v>
       </c>
       <c r="M44" t="n">
-        <v>360.2066255863332</v>
+        <v>357.2398569138106</v>
       </c>
       <c r="N44" t="n">
-        <v>359.2734559556514</v>
+        <v>356.3066872831288</v>
       </c>
       <c r="O44" t="n">
-        <v>359.9586037807472</v>
+        <v>356.9918351082246</v>
       </c>
       <c r="P44" t="n">
-        <v>251.7909420483858</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>268.4147721389347</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>194.0749545086009</v>
       </c>
       <c r="N45" t="n">
-        <v>261.2021044423938</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>270.4463465845857</v>
+        <v>269.4898681309822</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>260.8680311008681</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>327.8631333978215</v>
+        <v>337.982875940212</v>
       </c>
       <c r="C17" t="n">
-        <v>310.4021835053484</v>
+        <v>320.521926047739</v>
       </c>
       <c r="D17" t="n">
-        <v>299.8123333550238</v>
+        <v>309.9320758974144</v>
       </c>
       <c r="E17" t="n">
-        <v>327.0596618066027</v>
+        <v>337.1794043489932</v>
       </c>
       <c r="F17" t="n">
-        <v>254.1009854224707</v>
+        <v>362.1250800184429</v>
       </c>
       <c r="G17" t="n">
-        <v>249.2781327308774</v>
+        <v>370.5517717918665</v>
       </c>
       <c r="H17" t="n">
-        <v>173.4501973315095</v>
+        <v>210.3261188374235</v>
       </c>
       <c r="I17" t="n">
-        <v>44.45128478614822</v>
+        <v>69.90553516063055</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>94.99840967549056</v>
+        <v>9.298763531374306</v>
       </c>
       <c r="S17" t="n">
-        <v>154.1493613205862</v>
+        <v>164.2691038629767</v>
       </c>
       <c r="T17" t="n">
-        <v>168.2251412984722</v>
+        <v>178.3448838408628</v>
       </c>
       <c r="U17" t="n">
-        <v>196.4749446421774</v>
+        <v>110.7752984980611</v>
       </c>
       <c r="V17" t="n">
-        <v>272.8815502044758</v>
+        <v>283.0012927468663</v>
       </c>
       <c r="W17" t="n">
-        <v>294.3702604517539</v>
+        <v>304.4900029941444</v>
       </c>
       <c r="X17" t="n">
-        <v>314.8603924128099</v>
+        <v>324.9801349552005</v>
       </c>
       <c r="Y17" t="n">
-        <v>331.3672303903945</v>
+        <v>341.486972932785</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>111.6624753842082</v>
+        <v>121.7822179265988</v>
       </c>
       <c r="C18" t="n">
-        <v>6.683894204058049</v>
+        <v>32.13814457854036</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>102.6940998413702</v>
       </c>
       <c r="E18" t="n">
-        <v>102.7743721897418</v>
+        <v>17.07472604562557</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4.498857983608502</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.59255143994206</v>
       </c>
       <c r="H18" t="n">
-        <v>57.36473597083734</v>
+        <v>67.48447851322788</v>
       </c>
       <c r="I18" t="n">
-        <v>34.52592458575595</v>
+        <v>15.65481800244591</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.28712588698401</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>116.8124628381787</v>
+        <v>126.9322053805692</v>
       </c>
       <c r="T18" t="n">
-        <v>145.2940204291625</v>
+        <v>155.413762971553</v>
       </c>
       <c r="U18" t="n">
-        <v>171.0706738153157</v>
+        <v>181.1904163577062</v>
       </c>
       <c r="V18" t="n">
-        <v>177.9298788837662</v>
+        <v>188.0496214261567</v>
       </c>
       <c r="W18" t="n">
-        <v>196.8242748952605</v>
+        <v>206.944017437651</v>
       </c>
       <c r="X18" t="n">
-        <v>150.9022769378184</v>
+        <v>161.0220194802089</v>
       </c>
       <c r="Y18" t="n">
-        <v>95.84551274512242</v>
+        <v>160.9317300540358</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.9612719162782</v>
+        <v>135.0810144586687</v>
       </c>
       <c r="C19" t="n">
-        <v>112.3761128329687</v>
+        <v>79.50921534870994</v>
       </c>
       <c r="D19" t="n">
-        <v>93.74476475255324</v>
+        <v>103.8645072949438</v>
       </c>
       <c r="E19" t="n">
-        <v>91.56325438091005</v>
+        <v>5.863608236793795</v>
       </c>
       <c r="F19" t="n">
-        <v>90.55033975727213</v>
+        <v>100.6700822996627</v>
       </c>
       <c r="G19" t="n">
-        <v>15.21591903921806</v>
+        <v>123.2400136351902</v>
       </c>
       <c r="H19" t="n">
-        <v>107.3564642417805</v>
+        <v>117.476206784171</v>
       </c>
       <c r="I19" t="n">
-        <v>100.5797666615992</v>
+        <v>110.6995092039897</v>
       </c>
       <c r="J19" t="n">
-        <v>38.48847185101365</v>
+        <v>48.6082143934042</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.29133498603526</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.4226831115104</v>
+        <v>132.5424256539009</v>
       </c>
       <c r="S19" t="n">
-        <v>169.1458897713131</v>
+        <v>179.2656323137037</v>
       </c>
       <c r="T19" t="n">
-        <v>61.9209846440238</v>
+        <v>183.1946237050129</v>
       </c>
       <c r="U19" t="n">
-        <v>231.4483210908318</v>
+        <v>241.5680636332223</v>
       </c>
       <c r="V19" t="n">
-        <v>197.2669350581689</v>
+        <v>111.5672889140526</v>
       </c>
       <c r="W19" t="n">
-        <v>120.4983935523333</v>
+        <v>145.9526439268157</v>
       </c>
       <c r="X19" t="n">
-        <v>170.838947123378</v>
+        <v>180.9586896657686</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.5600485678371</v>
+        <v>173.8336876288262</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>229.9587813442399</v>
+        <v>325.9052658563587</v>
       </c>
       <c r="C20" t="n">
-        <v>310.4021835053484</v>
+        <v>308.4443159638856</v>
       </c>
       <c r="D20" t="n">
-        <v>188.6584368364253</v>
+        <v>297.854465813561</v>
       </c>
       <c r="E20" t="n">
-        <v>327.0596618066027</v>
+        <v>224.5843123648003</v>
       </c>
       <c r="F20" t="n">
-        <v>352.0053374760523</v>
+        <v>350.0474699345895</v>
       </c>
       <c r="G20" t="n">
-        <v>360.4320292494759</v>
+        <v>358.4741617080131</v>
       </c>
       <c r="H20" t="n">
-        <v>173.4501973315095</v>
+        <v>282.6462263086452</v>
       </c>
       <c r="I20" t="n">
-        <v>155.6051813047468</v>
+        <v>153.647313763284</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>94.99840967549056</v>
+        <v>93.04054213402777</v>
       </c>
       <c r="S20" t="n">
-        <v>154.1493613205862</v>
+        <v>152.1914937791234</v>
       </c>
       <c r="T20" t="n">
-        <v>168.2251412984722</v>
+        <v>52.14660856588816</v>
       </c>
       <c r="U20" t="n">
-        <v>196.4749446421774</v>
+        <v>194.5170771007146</v>
       </c>
       <c r="V20" t="n">
-        <v>272.8815502044758</v>
+        <v>156.8030174718917</v>
       </c>
       <c r="W20" t="n">
-        <v>294.3702604517539</v>
+        <v>178.2917277191698</v>
       </c>
       <c r="X20" t="n">
-        <v>314.8603924128099</v>
+        <v>312.9025248713471</v>
       </c>
       <c r="Y20" t="n">
-        <v>220.2133338717959</v>
+        <v>329.4093628489317</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5085788656096497</v>
+        <v>109.7046078427454</v>
       </c>
       <c r="C21" t="n">
-        <v>117.8377907226566</v>
+        <v>115.8799231811938</v>
       </c>
       <c r="D21" t="n">
-        <v>92.57435729897963</v>
+        <v>90.61648975751685</v>
       </c>
       <c r="E21" t="n">
-        <v>102.7743721897418</v>
+        <v>100.816504648279</v>
       </c>
       <c r="F21" t="n">
-        <v>90.19850412772476</v>
+        <v>88.24063658626197</v>
       </c>
       <c r="G21" t="n">
-        <v>82.47280889755152</v>
+        <v>35.40432788512374</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.52592458575595</v>
+        <v>32.56805704429317</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.28712588698401</v>
+        <v>43.32925834552123</v>
       </c>
       <c r="S21" t="n">
-        <v>5.658566319580132</v>
+        <v>114.8545952967159</v>
       </c>
       <c r="T21" t="n">
-        <v>34.14012391056391</v>
+        <v>143.3361528876997</v>
       </c>
       <c r="U21" t="n">
-        <v>171.0706738153157</v>
+        <v>169.1128062738529</v>
       </c>
       <c r="V21" t="n">
-        <v>137.3902628010219</v>
+        <v>61.85134615118207</v>
       </c>
       <c r="W21" t="n">
-        <v>196.8242748952605</v>
+        <v>80.74574216267641</v>
       </c>
       <c r="X21" t="n">
-        <v>150.9022769378184</v>
+        <v>34.82374420523431</v>
       </c>
       <c r="Y21" t="n">
-        <v>150.8119875116452</v>
+        <v>148.8541199701825</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.9612719162782</v>
+        <v>123.0034043748154</v>
       </c>
       <c r="C22" t="n">
-        <v>112.3761128329687</v>
+        <v>110.4182452915059</v>
       </c>
       <c r="D22" t="n">
-        <v>93.74476475255324</v>
+        <v>91.78689721109045</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>89.60538683944726</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>88.59247221580934</v>
       </c>
       <c r="G22" t="n">
-        <v>113.1202710927996</v>
+        <v>111.1624035513369</v>
       </c>
       <c r="H22" t="n">
-        <v>107.3564642417805</v>
+        <v>105.3985967003177</v>
       </c>
       <c r="I22" t="n">
-        <v>100.5797666615992</v>
+        <v>98.62189912013638</v>
       </c>
       <c r="J22" t="n">
-        <v>38.48847185101365</v>
+        <v>36.53060430955087</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.29133498603526</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.4226831115104</v>
+        <v>6.344150378926301</v>
       </c>
       <c r="S22" t="n">
-        <v>57.99199325271456</v>
+        <v>53.06735703872906</v>
       </c>
       <c r="T22" t="n">
-        <v>173.0748811626224</v>
+        <v>56.9963484300383</v>
       </c>
       <c r="U22" t="n">
-        <v>231.4483210908318</v>
+        <v>158.3064390936019</v>
       </c>
       <c r="V22" t="n">
-        <v>170.3222806241709</v>
+        <v>195.3090675167061</v>
       </c>
       <c r="W22" t="n">
-        <v>231.6522900709319</v>
+        <v>229.6944225294691</v>
       </c>
       <c r="X22" t="n">
-        <v>59.68505060477946</v>
+        <v>168.8810795819152</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.7139450864357</v>
+        <v>161.7560775449729</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C23" t="n">
-        <v>34.86197004193343</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D23" t="n">
-        <v>265.2864087692679</v>
+        <v>24.27211989160884</v>
       </c>
       <c r="E23" t="n">
         <v>292.5337372208467</v>
@@ -24220,13 +24220,13 @@
         <v>317.4794128902964</v>
       </c>
       <c r="G23" t="n">
-        <v>84.89181578606093</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H23" t="n">
-        <v>250.0781692643521</v>
+        <v>37.79278362090997</v>
       </c>
       <c r="I23" t="n">
-        <v>39.83442452932589</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>119.6234367348303</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U23" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
-        <v>259.8443358659979</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X23" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.8413058046385</v>
+        <v>55.82701692697947</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C24" t="n">
-        <v>30.77638872705619</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>55.6725795419688</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
         <v>22.83881138508139</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>1.909626422899947</v>
       </c>
       <c r="U24" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>77.85018824721276</v>
       </c>
       <c r="D25" t="n">
-        <v>54.48175391164945</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>56.02441517151617</v>
@@ -24414,10 +24414,10 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>114.8066438396252</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>136.3130225376221</v>
@@ -24445,10 +24445,10 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>237.8482579024594</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>24.27211989160884</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
         <v>292.5337372208467</v>
@@ -24457,13 +24457,13 @@
         <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H26" t="n">
         <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
-        <v>121.0792567189908</v>
+        <v>39.83442452932589</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>259.8443358659979</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X26" t="n">
-        <v>39.32017894939491</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
         <v>296.8413058046385</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>30.06932717988307</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
         <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>15.94771707133674</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
         <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
         <v>3.962547265257697</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
         <v>162.7410104724129</v>
@@ -24666,10 +24666,10 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>113.4831143929484</v>
+        <v>25.26752569278869</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.32291993440646</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>257.7625750786013</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
         <v>265.2864087692679</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
         <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>238.3556256187198</v>
+        <v>26.07023997527784</v>
       </c>
       <c r="W29" t="n">
-        <v>259.8443358659979</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X29" t="n">
         <v>39.32017894939491</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24818,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>105.1295782895072</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>96.44015210281485</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>56.03285916339152</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>63.39242073772844</v>
       </c>
       <c r="J31" t="n">
         <v>3.962547265257697</v>
@@ -24897,16 +24897,16 @@
         <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>282.5760075108374</v>
+        <v>29.48410854932507</v>
       </c>
       <c r="C32" t="n">
-        <v>265.1150576183644</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>13.51091859038075</v>
+        <v>4.664737096723883</v>
       </c>
       <c r="E32" t="n">
-        <v>281.7725359196186</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>94.43282594562618</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>315.1449033624919</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>239.316967963124</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>110.3180554177628</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>49.71128378850655</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>108.8622354336022</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>122.9380154114882</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>151.1878187551933</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>227.5944243174918</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>8.068845687110809</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>28.55897764816683</v>
+        <v>16.48136756431353</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.0801045034104</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>72.55066483567261</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>122.6319403729791</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>26.09606403470507</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.67414602929416</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>67.0889869459847</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>67.83314520581563</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>55.29264077461515</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>186.1611952038477</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.56371783175265</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>56.90481879873296</v>
       </c>
       <c r="X34" t="n">
-        <v>125.551821236394</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>282.5760075108374</v>
+        <v>41.56171863317837</v>
       </c>
       <c r="C35" t="n">
         <v>265.1150576183644</v>
       </c>
       <c r="D35" t="n">
-        <v>13.51091859038075</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E35" t="n">
         <v>281.7725359196186</v>
       </c>
       <c r="F35" t="n">
-        <v>232.2007801406523</v>
+        <v>65.70392271140923</v>
       </c>
       <c r="G35" t="n">
-        <v>315.1449033624919</v>
+        <v>102.8595177190498</v>
       </c>
       <c r="H35" t="n">
         <v>239.316967963124</v>
@@ -25210,19 +25210,19 @@
         <v>122.9380154114882</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W35" t="n">
         <v>249.0831345647699</v>
       </c>
       <c r="X35" t="n">
-        <v>28.55897764816683</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y35" t="n">
-        <v>286.0801045034104</v>
+        <v>45.06581562575138</v>
       </c>
     </row>
     <row r="36">
@@ -25235,19 +25235,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>40.53487912167083</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>123.6572682574569</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>79.67414602929416</v>
       </c>
       <c r="C37" t="n">
-        <v>39.69591800263562</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D37" t="n">
         <v>48.45763886556922</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F37" t="n">
         <v>45.26321387028811</v>
@@ -25329,7 +25329,7 @@
         <v>67.83314520581563</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I37" t="n">
         <v>55.29264077461515</v>
@@ -25362,25 +25362,25 @@
         <v>77.13555722452635</v>
       </c>
       <c r="S37" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>186.1611952038477</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>31.66255020110715</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>317.1019320965934</v>
+        <v>315.1440645551306</v>
       </c>
       <c r="C38" t="n">
-        <v>299.6409822041204</v>
+        <v>297.6831146626576</v>
       </c>
       <c r="D38" t="n">
-        <v>289.0511320537958</v>
+        <v>287.093264512333</v>
       </c>
       <c r="E38" t="n">
-        <v>316.2984605053746</v>
+        <v>314.3405929639118</v>
       </c>
       <c r="F38" t="n">
-        <v>341.2441361748242</v>
+        <v>98.27197975570243</v>
       </c>
       <c r="G38" t="n">
-        <v>349.6708279482478</v>
+        <v>106.698671529126</v>
       </c>
       <c r="H38" t="n">
-        <v>32.82860367122089</v>
+        <v>30.87073612975814</v>
       </c>
       <c r="I38" t="n">
-        <v>144.8439800035187</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>84.23720837426251</v>
+        <v>82.27934083279972</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>141.4302924778954</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>155.5060724557814</v>
       </c>
       <c r="U38" t="n">
-        <v>33.26616883645048</v>
+        <v>114.3566026181004</v>
       </c>
       <c r="V38" t="n">
-        <v>262.1203489032478</v>
+        <v>260.162481361785</v>
       </c>
       <c r="W38" t="n">
-        <v>283.6090591505258</v>
+        <v>281.6511916090631</v>
       </c>
       <c r="X38" t="n">
-        <v>63.08490223392278</v>
+        <v>302.1413235701191</v>
       </c>
       <c r="Y38" t="n">
-        <v>320.6060290891664</v>
+        <v>318.6481615477036</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>91.19641134176786</v>
       </c>
       <c r="C39" t="n">
-        <v>107.0765894214286</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>81.81315599775158</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>79.4373028264967</v>
+        <v>77.47943528503392</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>69.75374005486067</v>
       </c>
       <c r="H39" t="n">
-        <v>46.60353466960929</v>
+        <v>44.6456671281465</v>
       </c>
       <c r="I39" t="n">
-        <v>23.7647232845279</v>
+        <v>21.80685574306511</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>104.0933939954879</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>158.3516049726248</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>117.9490292326973</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>140.1410756365903</v>
+        <v>138.1832080951275</v>
       </c>
       <c r="Y39" t="n">
-        <v>140.0507862104172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.2000706150501</v>
+        <v>112.2422030735873</v>
       </c>
       <c r="C40" t="n">
-        <v>101.6149115317407</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>26.23499615643406</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>79.78913845604407</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3590697915716</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>96.5952629405524</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>89.81856536037111</v>
+        <v>87.86069781890832</v>
       </c>
       <c r="J40" t="n">
-        <v>27.7272705497856</v>
+        <v>25.76940300832281</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.53013368480721</v>
+        <v>18.57226614334442</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.7036142688195</v>
       </c>
       <c r="S40" t="n">
-        <v>158.3846884700851</v>
+        <v>156.4268209286223</v>
       </c>
       <c r="T40" t="n">
-        <v>162.3136798613943</v>
+        <v>160.3558123199315</v>
       </c>
       <c r="U40" t="n">
-        <v>220.6871197896037</v>
+        <v>218.7292522481409</v>
       </c>
       <c r="V40" t="n">
-        <v>186.5057337569408</v>
+        <v>184.5478662154781</v>
       </c>
       <c r="W40" t="n">
-        <v>1.689825129614292</v>
+        <v>218.9332212282411</v>
       </c>
       <c r="X40" t="n">
-        <v>160.07774582215</v>
+        <v>158.1198782806872</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.9527437852076</v>
+        <v>150.9948762437448</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>327.0926313111382</v>
+        <v>325.1347637696754</v>
       </c>
       <c r="C41" t="n">
-        <v>195.2506478288047</v>
+        <v>162.4789136860501</v>
       </c>
       <c r="D41" t="n">
-        <v>299.0418312683406</v>
+        <v>151.8890635357255</v>
       </c>
       <c r="E41" t="n">
-        <v>326.2891597199194</v>
+        <v>196.4436240900897</v>
       </c>
       <c r="F41" t="n">
-        <v>351.2348353893691</v>
+        <v>349.2769678479063</v>
       </c>
       <c r="G41" t="n">
-        <v>229.8011348037322</v>
+        <v>357.7036596213299</v>
       </c>
       <c r="H41" t="n">
-        <v>153.9731994043643</v>
+        <v>281.875724221962</v>
       </c>
       <c r="I41" t="n">
-        <v>24.97428685900306</v>
+        <v>152.8768116766008</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>94.22790758880731</v>
+        <v>92.27004004734452</v>
       </c>
       <c r="S41" t="n">
-        <v>153.378859233903</v>
+        <v>151.4209916924402</v>
       </c>
       <c r="T41" t="n">
-        <v>167.454639211789</v>
+        <v>165.4967716703262</v>
       </c>
       <c r="U41" t="n">
-        <v>195.7044425554941</v>
+        <v>193.7465750140314</v>
       </c>
       <c r="V41" t="n">
-        <v>272.1110481177925</v>
+        <v>270.1531805763298</v>
       </c>
       <c r="W41" t="n">
-        <v>293.5997583650707</v>
+        <v>291.6418908236079</v>
       </c>
       <c r="X41" t="n">
-        <v>314.0898903261267</v>
+        <v>312.1320227846639</v>
       </c>
       <c r="Y41" t="n">
-        <v>330.5967283037112</v>
+        <v>183.4439605710962</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.891973297525</v>
+        <v>108.9341057560622</v>
       </c>
       <c r="C42" t="n">
-        <v>117.0672886359734</v>
+        <v>115.1094210945106</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>89.84598767083359</v>
       </c>
       <c r="E42" t="n">
-        <v>102.0038701030586</v>
+        <v>100.0460025615958</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>33.75542249907271</v>
+        <v>23.12468304860418</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.51662380030076</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>116.0419607514955</v>
+        <v>114.0840932100327</v>
       </c>
       <c r="T42" t="n">
-        <v>144.5235183424792</v>
+        <v>142.5656508010164</v>
       </c>
       <c r="U42" t="n">
-        <v>115.7267513690113</v>
+        <v>23.14740399601737</v>
       </c>
       <c r="V42" t="n">
-        <v>177.1593767970829</v>
+        <v>30.00660906446785</v>
       </c>
       <c r="W42" t="n">
-        <v>196.0537728085772</v>
+        <v>194.0959052671145</v>
       </c>
       <c r="X42" t="n">
-        <v>20.27138249207462</v>
+        <v>148.1739073096723</v>
       </c>
       <c r="Y42" t="n">
-        <v>150.041485424962</v>
+        <v>148.0836178834992</v>
       </c>
     </row>
     <row r="43">
@@ -25788,28 +25788,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>111.6056107462855</v>
+        <v>109.6477432048227</v>
       </c>
       <c r="D43" t="n">
-        <v>92.97426266586999</v>
+        <v>91.0163951244072</v>
       </c>
       <c r="E43" t="n">
-        <v>90.7927522942268</v>
+        <v>88.83488475276401</v>
       </c>
       <c r="F43" t="n">
-        <v>37.79433603797788</v>
+        <v>87.82197012912609</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3497690061164</v>
+        <v>28.26060893273826</v>
       </c>
       <c r="H43" t="n">
-        <v>106.5859621550972</v>
+        <v>104.6280946136344</v>
       </c>
       <c r="I43" t="n">
-        <v>99.80926457491591</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>37.71796976433041</v>
+        <v>35.76010222286762</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.52083289935202</v>
+        <v>28.56296535788923</v>
       </c>
       <c r="R43" t="n">
-        <v>121.6521810248271</v>
+        <v>119.6943134833643</v>
       </c>
       <c r="S43" t="n">
-        <v>168.3753876846299</v>
+        <v>166.4175201431671</v>
       </c>
       <c r="T43" t="n">
-        <v>172.3043790759391</v>
+        <v>170.3465115344763</v>
       </c>
       <c r="U43" t="n">
-        <v>230.6778190041485</v>
+        <v>228.7199514626857</v>
       </c>
       <c r="V43" t="n">
-        <v>196.4964329714856</v>
+        <v>194.5385654300229</v>
       </c>
       <c r="W43" t="n">
-        <v>101.0213956251881</v>
+        <v>228.9239204427859</v>
       </c>
       <c r="X43" t="n">
-        <v>170.0684450366948</v>
+        <v>168.110577495232</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.08305064069194</v>
+        <v>15.79067526713737</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>327.0926313111382</v>
+        <v>198.2411400831376</v>
       </c>
       <c r="C44" t="n">
-        <v>179.7712890596047</v>
+        <v>307.6738138772024</v>
       </c>
       <c r="D44" t="n">
-        <v>299.0418312683406</v>
+        <v>297.0839637268778</v>
       </c>
       <c r="E44" t="n">
-        <v>326.2891597199194</v>
+        <v>324.3312921784566</v>
       </c>
       <c r="F44" t="n">
-        <v>351.2348353893691</v>
+        <v>349.2769678479063</v>
       </c>
       <c r="G44" t="n">
-        <v>359.6615271627927</v>
+        <v>357.7036596213299</v>
       </c>
       <c r="H44" t="n">
-        <v>283.8335917634248</v>
+        <v>170.1078204788595</v>
       </c>
       <c r="I44" t="n">
-        <v>154.8346792180635</v>
+        <v>25.98318799006293</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>94.22790758880731</v>
+        <v>92.27004004734452</v>
       </c>
       <c r="S44" t="n">
-        <v>153.378859233903</v>
+        <v>151.4209916924402</v>
       </c>
       <c r="T44" t="n">
-        <v>167.454639211789</v>
+        <v>165.4967716703262</v>
       </c>
       <c r="U44" t="n">
-        <v>195.7044425554941</v>
+        <v>193.7465750140314</v>
       </c>
       <c r="V44" t="n">
-        <v>157.730014527932</v>
+        <v>270.1531805763298</v>
       </c>
       <c r="W44" t="n">
-        <v>163.7393660060102</v>
+        <v>291.6418908236079</v>
       </c>
       <c r="X44" t="n">
-        <v>184.2294979670662</v>
+        <v>185.2383990981261</v>
       </c>
       <c r="Y44" t="n">
-        <v>330.5967283037112</v>
+        <v>328.6388607622484</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>117.0672886359734</v>
+        <v>115.1094210945106</v>
       </c>
       <c r="D45" t="n">
-        <v>91.80385521229638</v>
+        <v>89.84598767083359</v>
       </c>
       <c r="E45" t="n">
-        <v>102.0038701030586</v>
+        <v>100.0460025615958</v>
       </c>
       <c r="F45" t="n">
-        <v>89.42800204104151</v>
+        <v>87.47013449957872</v>
       </c>
       <c r="G45" t="n">
-        <v>81.70230681086827</v>
+        <v>79.74443926940548</v>
       </c>
       <c r="H45" t="n">
-        <v>53.10517359181859</v>
+        <v>54.6363663426913</v>
       </c>
       <c r="I45" t="n">
-        <v>33.75542249907271</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.51662380030076</v>
+        <v>42.55875625883797</v>
       </c>
       <c r="S45" t="n">
-        <v>116.0419607514955</v>
+        <v>114.0840932100327</v>
       </c>
       <c r="T45" t="n">
-        <v>144.5235183424792</v>
+        <v>142.5656508010164</v>
       </c>
       <c r="U45" t="n">
-        <v>170.3001717286324</v>
+        <v>70.41243747120139</v>
       </c>
       <c r="V45" t="n">
-        <v>177.1593767970829</v>
+        <v>175.2015092556201</v>
       </c>
       <c r="W45" t="n">
-        <v>66.19338044951675</v>
+        <v>67.20228158057662</v>
       </c>
       <c r="X45" t="n">
-        <v>20.27138249207462</v>
+        <v>148.1739073096723</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.18109306590151</v>
+        <v>21.18999419696135</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.87489072644948</v>
+        <v>122.2329022881321</v>
       </c>
       <c r="C46" t="n">
-        <v>111.6056107462855</v>
+        <v>109.6477432048227</v>
       </c>
       <c r="D46" t="n">
-        <v>92.97426266586999</v>
+        <v>91.0163951244072</v>
       </c>
       <c r="E46" t="n">
-        <v>90.7927522942268</v>
+        <v>88.83488475276401</v>
       </c>
       <c r="F46" t="n">
-        <v>89.77983767058888</v>
+        <v>87.82197012912609</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3497690061164</v>
+        <v>110.3919014646536</v>
       </c>
       <c r="H46" t="n">
-        <v>106.5859621550972</v>
+        <v>104.6280946136344</v>
       </c>
       <c r="I46" t="n">
-        <v>99.80926457491591</v>
+        <v>23.92246584524027</v>
       </c>
       <c r="J46" t="n">
-        <v>37.71796976433041</v>
+        <v>35.76010222286762</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.52083289935202</v>
+        <v>28.56296535788923</v>
       </c>
       <c r="R46" t="n">
-        <v>121.6521810248271</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.3753876846299</v>
+        <v>166.4175201431671</v>
       </c>
       <c r="T46" t="n">
-        <v>172.3043790759391</v>
+        <v>170.3465115344763</v>
       </c>
       <c r="U46" t="n">
-        <v>100.817426645088</v>
+        <v>228.7199514626857</v>
       </c>
       <c r="V46" t="n">
-        <v>196.4964329714856</v>
+        <v>194.5385654300229</v>
       </c>
       <c r="W46" t="n">
-        <v>230.8817879842486</v>
+        <v>102.030296756248</v>
       </c>
       <c r="X46" t="n">
-        <v>40.2080526776343</v>
+        <v>41.21695380869417</v>
       </c>
       <c r="Y46" t="n">
-        <v>33.08305064069194</v>
+        <v>160.9855754582896</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>403577.8988981047</v>
+        <v>376374.7588925214</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>403577.8988981048</v>
+        <v>408840.8929535066</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>537032.345486698</v>
+        <v>537032.3454866979</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>557063.9590384287</v>
+        <v>579160.3621566255</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>557063.959038429</v>
+        <v>557063.9590384287</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492026.6639125108</v>
+        <v>495734.5729222042</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>414842.4604205113</v>
+        <v>426588.2269260877</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>414842.4604205112</v>
+        <v>416995.2843844959</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170387</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170386</v>
       </c>
       <c r="D2" t="n">
         <v>819276.3387170383</v>
@@ -26325,37 +26325,37 @@
         <v>240759.9041363482</v>
       </c>
       <c r="F2" t="n">
-        <v>240759.9041363477</v>
+        <v>240759.9041363482</v>
       </c>
       <c r="G2" t="n">
-        <v>411183.8825869955</v>
+        <v>378369.933298698</v>
       </c>
       <c r="H2" t="n">
-        <v>411183.8825869954</v>
+        <v>417532.4004420345</v>
       </c>
       <c r="I2" t="n">
         <v>559848.3273116795</v>
       </c>
       <c r="J2" t="n">
-        <v>559848.3273116796</v>
+        <v>559848.3273116797</v>
       </c>
       <c r="K2" t="n">
-        <v>559848.3273116796</v>
+        <v>559848.3273116795</v>
       </c>
       <c r="L2" t="n">
-        <v>586557.1453806539</v>
+        <v>616019.0162049166</v>
       </c>
       <c r="M2" t="n">
         <v>586557.1453806539</v>
       </c>
       <c r="N2" t="n">
-        <v>499840.7518794301</v>
+        <v>504784.6305590211</v>
       </c>
       <c r="O2" t="n">
-        <v>421986.2365363858</v>
+        <v>434190.3544913401</v>
       </c>
       <c r="P2" t="n">
-        <v>421986.236536386</v>
+        <v>425525.4760405292</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66369.62296819154</v>
+        <v>54070.87035512023</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>14599.93717951618</v>
       </c>
       <c r="I3" t="n">
-        <v>62153.34506511848</v>
+        <v>59798.12493978234</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44512.9682818739</v>
+        <v>46079.26231504413</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>89949.63535577923</v>
       </c>
       <c r="G4" t="n">
-        <v>175474.1421800106</v>
+        <v>158266.3987139117</v>
       </c>
       <c r="H4" t="n">
-        <v>175474.1421800106</v>
+        <v>178803.325926827</v>
       </c>
       <c r="I4" t="n">
         <v>247349.3547233101</v>
@@ -26447,19 +26447,19 @@
         <v>247349.3547233101</v>
       </c>
       <c r="L4" t="n">
-        <v>262619.2129810327</v>
+        <v>279464.8958770261</v>
       </c>
       <c r="M4" t="n">
         <v>262619.2129810327</v>
       </c>
       <c r="N4" t="n">
-        <v>213054.0056657601</v>
+        <v>215879.4340098932</v>
       </c>
       <c r="O4" t="n">
-        <v>179762.4163281585</v>
+        <v>185191.6341889637</v>
       </c>
       <c r="P4" t="n">
-        <v>179762.4163281585</v>
+        <v>182084.0892696084</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>839.9080922675672</v>
       </c>
       <c r="G5" t="n">
-        <v>11371.08248151649</v>
+        <v>9587.987769529078</v>
       </c>
       <c r="H5" t="n">
-        <v>11371.08248151649</v>
+        <v>11716.0579831491</v>
       </c>
       <c r="I5" t="n">
         <v>22169.15429094728</v>
@@ -26499,19 +26499,19 @@
         <v>22169.15429094728</v>
       </c>
       <c r="L5" t="n">
-        <v>23073.83772314023</v>
+        <v>24089.19032527969</v>
       </c>
       <c r="M5" t="n">
         <v>23073.83772314023</v>
       </c>
       <c r="N5" t="n">
-        <v>20171.27776914031</v>
+        <v>20335.87373548354</v>
       </c>
       <c r="O5" t="n">
-        <v>12573.21276854195</v>
+        <v>13670.14681107636</v>
       </c>
       <c r="P5" t="n">
-        <v>12573.21276854195</v>
+        <v>12557.4291995958</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365500.9698275075</v>
+        <v>365456.8340488261</v>
       </c>
       <c r="C6" t="n">
-        <v>365500.9698275073</v>
+        <v>365456.8340488262</v>
       </c>
       <c r="D6" t="n">
-        <v>365500.969827507</v>
+        <v>365456.8340488259</v>
       </c>
       <c r="E6" t="n">
-        <v>141977.8013166656</v>
+        <v>127470.7546734672</v>
       </c>
       <c r="F6" t="n">
-        <v>149970.3606883009</v>
+        <v>135463.314045103</v>
       </c>
       <c r="G6" t="n">
-        <v>157969.0349572769</v>
+        <v>145377.8805459974</v>
       </c>
       <c r="H6" t="n">
-        <v>224338.6579254683</v>
+        <v>202325.3451169859</v>
       </c>
       <c r="I6" t="n">
-        <v>228176.4732323036</v>
+        <v>224001.8572938247</v>
       </c>
       <c r="J6" t="n">
-        <v>282337.2589257863</v>
+        <v>275807.4228619713</v>
       </c>
       <c r="K6" t="n">
-        <v>290329.8182974222</v>
+        <v>283799.982233607</v>
       </c>
       <c r="L6" t="n">
-        <v>256351.1263946072</v>
+        <v>261260.0988460824</v>
       </c>
       <c r="M6" t="n">
-        <v>300864.094676481</v>
+        <v>295001.9790643902</v>
       </c>
       <c r="N6" t="n">
-        <v>266615.4684445298</v>
+        <v>260662.8943310128</v>
       </c>
       <c r="O6" t="n">
-        <v>229650.6074396854</v>
+        <v>225657.2881069765</v>
       </c>
       <c r="P6" t="n">
-        <v>229650.6074396856</v>
+        <v>220996.0502257311</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="H2" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26715,19 +26715,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="N2" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="O2" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="P2" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="3">
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>111.1538965185986</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="H4" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="P4" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.88000905111432</v>
+        <v>34.76026650872377</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I2" t="n">
-        <v>34.52592458575595</v>
+        <v>32.56805704429317</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.64121035234238</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>111.1538965185986</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>18.30127650461444</v>
       </c>
       <c r="I4" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.88000905111432</v>
+        <v>34.76026650872377</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="N2" t="n">
-        <v>34.52592458575595</v>
+        <v>32.56805704429317</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>111.1538965185986</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.30127650461444</v>
       </c>
     </row>
   </sheetData>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="C17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="D17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="E17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="F17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="G17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="H17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="I17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="S17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="T17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="U17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="V17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="W17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="X17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="Y17" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="C18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="D18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="E18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="F18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="G18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="H18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="I18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="S18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="T18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="U18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="V18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="W18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="X18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="Y18" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="C19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="D19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="E19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="F19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="G19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="H19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="I19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="J19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="K19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="L19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="M19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="N19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="O19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="P19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="R19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="S19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="T19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="U19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="V19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="W19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="X19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.87070826565913</v>
+        <v>44.75096572326858</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="C20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="D20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="E20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="F20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="G20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="H20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="I20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="S20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="T20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="U20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="V20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="W20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="X20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="Y20" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="C21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="D21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="E21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="F21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="G21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="H21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="I21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="S21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="T21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="U21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="V21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="W21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="X21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="Y21" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="C22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="D22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="E22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="F22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="G22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="H22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="I22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="J22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="K22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="L22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="M22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="N22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="O22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="P22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="R22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="S22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="T22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="U22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="V22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="W22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="X22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.87070826565913</v>
+        <v>56.82857580712191</v>
       </c>
     </row>
     <row r="23">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29878,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="35">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="C38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="D38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="E38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="F38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="G38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="H38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="I38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="S38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="T38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="U38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="V38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="W38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="X38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="Y38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="C39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="D39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="E39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="F39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="G39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="H39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="I39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="S39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="T39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="U39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="V39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="W39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="X39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="Y39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="C40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="D40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="E40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="F40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="G40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="H40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="I40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="J40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="K40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="L40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="M40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="N40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="O40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="P40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="R40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="S40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="T40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="U40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="V40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="W40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="X40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834996</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="K43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="L43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="M43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="N43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="O43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="P43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="R43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="C46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="D46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="E46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="F46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="G46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="H46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="I46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="J46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="K46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="L46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="M46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="N46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="O46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="P46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="R46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="S46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="T46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="U46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="V46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="W46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="X46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380516</v>
       </c>
     </row>
   </sheetData>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="M17" t="n">
-        <v>111.1538965185986</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="N17" t="n">
-        <v>23.19545256879586</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>111.1538965185986</v>
+        <v>91.94789823452676</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>111.1538965185986</v>
+        <v>91.94789823452672</v>
       </c>
       <c r="M18" t="n">
-        <v>111.1538965185986</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="O18" t="n">
-        <v>106.6628299925946</v>
+        <v>95.8193886865068</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>32.60121643977627</v>
+        <v>22.48147389738573</v>
       </c>
       <c r="L19" t="n">
-        <v>82.46073352597526</v>
+        <v>72.34099098358472</v>
       </c>
       <c r="M19" t="n">
-        <v>94.45458522749971</v>
+        <v>84.33484268510917</v>
       </c>
       <c r="N19" t="n">
-        <v>99.00288064488771</v>
+        <v>88.88313810249717</v>
       </c>
       <c r="O19" t="n">
-        <v>79.45583617969879</v>
+        <v>69.33609363730825</v>
       </c>
       <c r="P19" t="n">
-        <v>52.14926753055261</v>
+        <v>42.02952498816207</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L20" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="M20" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="N20" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>5.454167697619061</v>
       </c>
       <c r="P20" t="n">
-        <v>2.607268466410364</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>106.6628299925946</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>39.41421557397572</v>
       </c>
       <c r="O21" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>114.1206651911213</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>32.60121643977627</v>
+        <v>34.55908398123906</v>
       </c>
       <c r="L22" t="n">
-        <v>82.46073352597526</v>
+        <v>84.41860106743805</v>
       </c>
       <c r="M22" t="n">
-        <v>94.45458522749971</v>
+        <v>96.4124527689625</v>
       </c>
       <c r="N22" t="n">
-        <v>99.00288064488771</v>
+        <v>100.9607481863505</v>
       </c>
       <c r="O22" t="n">
-        <v>79.45583617969879</v>
+        <v>81.41370372116158</v>
       </c>
       <c r="P22" t="n">
-        <v>52.14926753055261</v>
+        <v>54.1071350720154</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.798654035970358</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="K34" t="n">
-        <v>77.88834232676028</v>
+        <v>89.96595241061361</v>
       </c>
       <c r="L34" t="n">
-        <v>127.7478594129593</v>
+        <v>139.8254694968126</v>
       </c>
       <c r="M34" t="n">
-        <v>139.7417111144837</v>
+        <v>151.819321198337</v>
       </c>
       <c r="N34" t="n">
-        <v>144.2900065318717</v>
+        <v>156.3676166157251</v>
       </c>
       <c r="O34" t="n">
-        <v>124.7429620666828</v>
+        <v>136.8205721505361</v>
       </c>
       <c r="P34" t="n">
-        <v>97.43639341753662</v>
+        <v>109.51400350139</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.99579090094875</v>
+        <v>26.07340098480208</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,7 +37399,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>43.36241774100432</v>
+        <v>45.32028528246711</v>
       </c>
       <c r="L40" t="n">
-        <v>93.22193482720331</v>
+        <v>95.1798023686661</v>
       </c>
       <c r="M40" t="n">
-        <v>105.2157865287278</v>
+        <v>107.1736540701906</v>
       </c>
       <c r="N40" t="n">
-        <v>109.7640819461158</v>
+        <v>111.7219494875786</v>
       </c>
       <c r="O40" t="n">
-        <v>90.21703748092685</v>
+        <v>92.17490502238964</v>
       </c>
       <c r="P40" t="n">
-        <v>62.91046883178066</v>
+        <v>64.86833637324345</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>59.85262623596362</v>
+        <v>139.3284395773683</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="N41" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="O41" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.75458849031377</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>139.3284395773683</v>
       </c>
       <c r="P42" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>33.37171852645952</v>
+        <v>35.32958606792231</v>
       </c>
       <c r="L43" t="n">
-        <v>83.23123561265851</v>
+        <v>85.1891031541213</v>
       </c>
       <c r="M43" t="n">
-        <v>95.22508731418296</v>
+        <v>97.18295485564575</v>
       </c>
       <c r="N43" t="n">
-        <v>99.77338273157096</v>
+        <v>101.7312502730338</v>
       </c>
       <c r="O43" t="n">
-        <v>80.22633826638204</v>
+        <v>82.18420580784483</v>
       </c>
       <c r="P43" t="n">
-        <v>52.91976961723586</v>
+        <v>54.87763715869865</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>31.20089617187876</v>
       </c>
       <c r="M44" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="N44" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="O44" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="P44" t="n">
-        <v>20.5579462931163</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.94092058658259</v>
       </c>
       <c r="N45" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>127.8501021401413</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.37171852645952</v>
+        <v>35.32958606792231</v>
       </c>
       <c r="L46" t="n">
-        <v>83.23123561265851</v>
+        <v>85.1891031541213</v>
       </c>
       <c r="M46" t="n">
-        <v>95.22508731418296</v>
+        <v>97.18295485564575</v>
       </c>
       <c r="N46" t="n">
-        <v>99.77338273157096</v>
+        <v>101.7312502730338</v>
       </c>
       <c r="O46" t="n">
-        <v>80.22633826638204</v>
+        <v>82.18420580784483</v>
       </c>
       <c r="P46" t="n">
-        <v>52.91976961723586</v>
+        <v>54.87763715869865</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
